--- a/Excel and Text File Real Write/src/utilities/mainPOI.xlsx
+++ b/Excel and Text File Real Write/src/utilities/mainPOI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t/>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>Samsuddin</t>
   </si>
 </sst>
 </file>
@@ -96,12 +102,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A5:C5"/>
+  <dimension ref="A4:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
